--- a/Interface web/uploads/exemple_liste.xlsx
+++ b/Interface web/uploads/exemple_liste.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ecambxl-my.sharepoint.com/personal/17076_ecam_be/Documents/Ecole/Master 1/Q2/Projet Robot/KorreKthor/Interface web/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ecambxl-my.sharepoint.com/personal/17076_ecam_be/Documents/Ecole/Master 1/Q2/Projet Robot/KorreKthor/Interface web/uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_4086817CFE8FC2D621F05A6516DF56A869228FBC" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8D320404-A15F-4F50-B824-257FB2DCFD79}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_4086817CFE8FC2D621F05A6516DF56A869228FBC" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{38B29996-C2DC-4EF9-A965-1918299A4BB7}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
   <si>
     <t>cotes_2021_4eisd40_juin</t>
   </si>
@@ -130,9 +130,6 @@
   </si>
   <si>
     <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
   </si>
 </sst>
 </file>
@@ -187,12 +184,12 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,7 +473,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25"/>
@@ -492,16 +489,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
@@ -528,7 +525,7 @@
       <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -549,7 +546,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -570,7 +567,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -591,7 +588,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -612,8 +609,8 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="8" t="s">
-        <v>33</v>
+      <c r="I6" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -633,8 +630,8 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="8" t="s">
-        <v>30</v>
+      <c r="I7" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -654,8 +651,8 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="8" t="s">
-        <v>31</v>
+      <c r="I8" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -675,8 +672,8 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="8" t="s">
-        <v>32</v>
+      <c r="I9" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -696,8 +693,8 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="8" t="s">
-        <v>33</v>
+      <c r="I10" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -717,8 +714,8 @@
       <c r="F11" s="3"/>
       <c r="G11" s="4"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="8" t="s">
-        <v>30</v>
+      <c r="I11" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -738,8 +735,8 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="8" t="s">
-        <v>31</v>
+      <c r="I12" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -759,8 +756,8 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="8" t="s">
-        <v>32</v>
+      <c r="I13" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -780,8 +777,8 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="8" t="s">
-        <v>33</v>
+      <c r="I14" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -801,7 +798,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -822,7 +819,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -840,7 +837,7 @@
       <c r="E17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -858,8 +855,8 @@
       <c r="E18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I18" s="8" t="s">
-        <v>33</v>
+      <c r="I18" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Interface web/uploads/exemple_liste.xlsx
+++ b/Interface web/uploads/exemple_liste.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ecambxl-my.sharepoint.com/personal/17076_ecam_be/Documents/Ecole/Master 1/Q2/Projet Robot/KorreKthor/Interface web/uploads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ecambxl-my.sharepoint.com/personal/17076_ecam_be/Documents/Ecole/Master 1/Q2/Projet Robot/KorreKthor/Interface web/Test/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="12" documentId="11_4086817CFE8FC2D621F05A6516DF56A869228FBC" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{38B29996-C2DC-4EF9-A965-1918299A4BB7}"/>
@@ -473,7 +473,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25"/>
@@ -869,6 +869,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008363491AB45800439C60E5A4AFEEFD7B" ma:contentTypeVersion="2" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="bd968deeac1585f8dce456b69f03d27c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9a086da1-f6b6-4775-9bed-6a1f1d23dd5e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="03b8d306141823516372461e3a3187c9" ns2:_="">
     <xsd:import namespace="9a086da1-f6b6-4775-9bed-6a1f1d23dd5e"/>
@@ -1000,15 +1009,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1016,6 +1016,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB8E40AD-9265-40D6-9AF2-9D7659819022}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DC8E71B-4498-481C-B008-0BDAE5EBCBF4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1033,14 +1041,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB8E40AD-9265-40D6-9AF2-9D7659819022}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C0AB5F2-35DE-410C-B519-5BD2E467F978}">
   <ds:schemaRefs>

--- a/Interface web/uploads/exemple_liste.xlsx
+++ b/Interface web/uploads/exemple_liste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ecambxl-my.sharepoint.com/personal/17076_ecam_be/Documents/Ecole/Master 1/Q2/Projet Robot/KorreKthor/Interface web/Test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ecambxl-my.sharepoint.com/personal/17036_ecam_be/Documents/ECAM/Bloc 4/Q2/KorreKthor/Interface web/uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_4086817CFE8FC2D621F05A6516DF56A869228FBC" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{38B29996-C2DC-4EF9-A965-1918299A4BB7}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="11_4086817CFE8FC2D621F05A6516DF56A869228FBC" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{36023886-8F54-4255-982E-0F6009403EEC}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -470,22 +470,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="12.1328125" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
     <col min="3" max="3" width="54" customWidth="1"/>
     <col min="4" max="4" width="6" customWidth="1"/>
-    <col min="5" max="5" width="44.59765625" customWidth="1"/>
-    <col min="6" max="6" width="6.73046875" customWidth="1"/>
+    <col min="5" max="5" width="44.5546875" customWidth="1"/>
+    <col min="6" max="6" width="6.77734375" customWidth="1"/>
     <col min="7" max="7" width="6" customWidth="1"/>
-    <col min="8" max="8" width="8.1328125" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -858,6 +858,600 @@
       <c r="I18" s="6" t="s">
         <v>30</v>
       </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="4"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="4"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="4"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="4"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="4"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="4"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="4"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="4"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="4"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="4"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="4"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="4"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="4"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="4"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="4"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="4"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="4"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="4"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="4"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="4"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="4"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="4"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="4"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="6"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="4"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="6"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="4"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="6"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="4"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="4"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="4"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="6"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="4"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="6"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="4"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="4"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="4"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="4"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="4"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="6"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="4"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="6"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="4"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="4"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="6"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="4"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="6"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="4"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="6"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="4"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="6"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="4"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="6"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="4"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="6"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="4"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="6"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="4"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="6"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="4"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="6"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="4"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="6"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="4"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="6"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="4"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="6"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="4"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="6"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="4"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="6"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="4"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="6"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="4"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="6"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="4"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="6"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="4"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Interface web/uploads/exemple_liste.xlsx
+++ b/Interface web/uploads/exemple_liste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ecambxl-my.sharepoint.com/personal/17036_ecam_be/Documents/ECAM/Bloc 4/Q2/KorreKthor/Interface web/uploads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ecambxl-my.sharepoint.com/personal/17076_ecam_be/Documents/Ecole/Master 1/Q2/Projet Robot/KorreKthor/Interface web/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_4086817CFE8FC2D621F05A6516DF56A869228FBC" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{36023886-8F54-4255-982E-0F6009403EEC}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_4086817CFE8FC2D621F05A6516DF56A869228FBC" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8D320404-A15F-4F50-B824-257FB2DCFD79}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="34">
   <si>
     <t>cotes_2021_4eisd40_juin</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -184,12 +187,12 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,35 +473,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.1328125" customWidth="1"/>
     <col min="3" max="3" width="54" customWidth="1"/>
     <col min="4" max="4" width="6" customWidth="1"/>
-    <col min="5" max="5" width="44.5546875" customWidth="1"/>
-    <col min="6" max="6" width="6.77734375" customWidth="1"/>
+    <col min="5" max="5" width="44.59765625" customWidth="1"/>
+    <col min="6" max="6" width="6.73046875" customWidth="1"/>
     <col min="7" max="7" width="6" customWidth="1"/>
-    <col min="8" max="8" width="8.109375" customWidth="1"/>
+    <col min="8" max="8" width="8.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
@@ -525,7 +528,7 @@
       <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="7" t="s">
         <v>29</v>
       </c>
     </row>
@@ -546,7 +549,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -567,7 +570,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="8" t="s">
         <v>31</v>
       </c>
     </row>
@@ -588,7 +591,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -609,8 +612,8 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="6" t="s">
-        <v>30</v>
+      <c r="I6" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -630,8 +633,8 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="6" t="s">
-        <v>31</v>
+      <c r="I7" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -651,8 +654,8 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="6" t="s">
-        <v>32</v>
+      <c r="I8" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -672,8 +675,8 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="6" t="s">
-        <v>30</v>
+      <c r="I9" s="8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -693,8 +696,8 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="6" t="s">
-        <v>31</v>
+      <c r="I10" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -714,8 +717,8 @@
       <c r="F11" s="3"/>
       <c r="G11" s="4"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="6" t="s">
-        <v>32</v>
+      <c r="I11" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -735,8 +738,8 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="6" t="s">
-        <v>30</v>
+      <c r="I12" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -756,8 +759,8 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="6" t="s">
-        <v>31</v>
+      <c r="I13" s="8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -777,8 +780,8 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="6" t="s">
-        <v>32</v>
+      <c r="I14" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -798,7 +801,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -819,7 +822,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="8" t="s">
         <v>31</v>
       </c>
     </row>
@@ -837,7 +840,7 @@
       <c r="E17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -855,603 +858,9 @@
       <c r="E18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I18" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="4"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="4"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="4"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="4"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="4"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="4"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="6"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="4"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="6"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="4"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="6"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="4"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="6"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="4"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="6"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="4"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="6"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="4"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="6"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="4"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="4"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="4"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="6"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="4"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="6"/>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="4"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="6"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="4"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="6"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="4"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="6"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="4"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="6"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="4"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="6"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="4"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="6"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="4"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="6"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="4"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="6"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="4"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="6"/>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="4"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="6"/>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="4"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="6"/>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="4"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="6"/>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="4"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="6"/>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="4"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="6"/>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="4"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="6"/>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="4"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="6"/>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="4"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="6"/>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="4"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="6"/>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="4"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="6"/>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="4"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="6"/>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="4"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="6"/>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="4"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="6"/>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="4"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="6"/>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="4"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="6"/>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="4"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="6"/>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="4"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="6"/>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="4"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="6"/>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="4"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="6"/>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="4"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="6"/>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="4"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="6"/>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="4"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="6"/>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="4"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="6"/>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="4"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="6"/>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="4"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="6"/>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="4"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="6"/>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="4"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="6"/>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="4"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="6"/>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="4"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="6"/>
+      <c r="I18" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1463,15 +872,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008363491AB45800439C60E5A4AFEEFD7B" ma:contentTypeVersion="2" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="bd968deeac1585f8dce456b69f03d27c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9a086da1-f6b6-4775-9bed-6a1f1d23dd5e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="03b8d306141823516372461e3a3187c9" ns2:_="">
     <xsd:import namespace="9a086da1-f6b6-4775-9bed-6a1f1d23dd5e"/>
@@ -1603,6 +1003,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1610,14 +1019,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB8E40AD-9265-40D6-9AF2-9D7659819022}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DC8E71B-4498-481C-B008-0BDAE5EBCBF4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1635,6 +1036,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB8E40AD-9265-40D6-9AF2-9D7659819022}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C0AB5F2-35DE-410C-B519-5BD2E467F978}">
   <ds:schemaRefs>
